--- a/meta/8-5-2.xlsx
+++ b/meta/8-5-2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269DB68-FA97-4356-8E4F-FD193BD6A65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +110,6 @@
     <t>8.5. К 2030 году обеспечить полную и производительную занятость и достойную работу для всех женщин и мужчин, в том числе молодых людей и инвалидов, и равную оплату за труд равной ценности</t>
   </si>
   <si>
-    <t>8.5.2. Уровень безработицы в разбивке по полу, возрасту и инвалидности</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР
 (Отдел статистики труда и занятости)</t>
   </si>
@@ -125,9 +121,6 @@
   </si>
   <si>
     <t>(0312) 626076</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Уровень безработицы - удельный вес численности безработных в численности рабочей силы, измеренный в процентах.</t>
@@ -169,17 +162,31 @@
 http://www.stat.kg/ru/publications/sbornik-zhenshiny-i-muzhchiny-kyrgyzskoj-respubliki/
 http://www.stat.kg/ru/publications/zanyatost-i-bezrabotica-itogi-integrirovannogo-vyborochnogo-obsledovaniya-byudzhetov-domashnih-hozyajstv-i-rabochej-sily-v-2013g/</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>8.5.2 Уровень безработицы в разбивке по полу, возрасту и инвалидности</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,32 +253,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{38A7501C-A73F-41DE-A7B9-D735D4281FF8}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8AB24C-FB8D-4108-BFDE-811ADC6669A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,15 +638,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -699,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
